--- a/artfynd/A 16388-2023 artfynd.xlsx
+++ b/artfynd/A 16388-2023 artfynd.xlsx
@@ -2381,12 +2381,7 @@
         <v>109244072</v>
       </c>
       <c r="B17" t="n">
-        <v>78479</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>80221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2418,10 +2413,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>621597.8119874365</v>
+        <v>621598</v>
       </c>
       <c r="R17" t="n">
-        <v>6898388.024724091</v>
+        <v>6898388</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2451,19 +2446,9 @@
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-05-10</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
